--- a/Design/마법사키우기기획서.xlsx
+++ b/Design/마법사키우기기획서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="19395" windowHeight="4245"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="19395" windowHeight="4245" tabRatio="785" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="스크롤" sheetId="14" r:id="rId14"/>
     <sheet name="광고" sheetId="10" r:id="rId15"/>
     <sheet name="상점" sheetId="13" r:id="rId16"/>
+    <sheet name="퀘스트" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="285">
   <si>
     <t>던전</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1041,6 +1042,63 @@
   <si>
     <t>컨셉사진에 표시된 곳에는 물, 불, 바람, 번개 문양이 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 퀘스트와 반복 퀘스트가 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루일퀘 최종 보상</t>
+  </si>
+  <si>
+    <t>플레이타임</t>
+  </si>
+  <si>
+    <t>장비합성</t>
+  </si>
+  <si>
+    <t>장비소환</t>
+  </si>
+  <si>
+    <t>스킬소환</t>
+  </si>
+  <si>
+    <t>광고 보기</t>
+  </si>
+  <si>
+    <t>일일 퀘스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 퀘스트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스테이지 클리어 할 때마다, </t>
+  </si>
+  <si>
+    <t>몬스터 처치</t>
+  </si>
+  <si>
+    <t>스킬 소환</t>
+  </si>
+  <si>
+    <t>스킬 습득</t>
+  </si>
+  <si>
+    <t>장비 소환</t>
+  </si>
+  <si>
+    <t>장비 융합</t>
+  </si>
+  <si>
+    <t>공격력 강화</t>
+  </si>
+  <si>
+    <t>체력 강화</t>
   </si>
 </sst>
 </file>
@@ -2290,7 +2348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AU21" sqref="AU21"/>
     </sheetView>
   </sheetViews>
@@ -3982,6 +4040,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG26" sqref="AG26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E26"/>

--- a/Design/마법사키우기기획서.xlsx
+++ b/Design/마법사키우기기획서.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="284">
   <si>
     <t>던전</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1096,9 +1096,6 @@
   </si>
   <si>
     <t>공격력 강화</t>
-  </si>
-  <si>
-    <t>체력 강화</t>
   </si>
 </sst>
 </file>
@@ -4042,10 +4039,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG26"/>
+      <selection activeCell="O29" sqref="O28:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4138,11 +4135,6 @@
     <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Design/마법사키우기기획서.xlsx
+++ b/Design/마법사키우기기획서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="19395" windowHeight="4245" tabRatio="785" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="19395" windowHeight="4245" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="290">
   <si>
     <t>던전</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1096,6 +1096,30 @@
   </si>
   <si>
     <t>공격력 강화</t>
+  </si>
+  <si>
+    <t>한복 둘중 하나 택1 근데 난 왼쪽이 더 좋음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오피스룩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐주얼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새내기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대략적인 형태. 거의 워크의 위습같은 모양이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요정은 찾을 때 마다 종류별로 1개씩 플래이어 주위를 떠다닌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1795,6 +1819,121 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>21852</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6779559" y="862854"/>
+          <a:ext cx="1713940" cy="1789019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>78443</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>202267</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>102534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6902825" y="3328147"/>
+          <a:ext cx="2006413" cy="2097181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -2045,6 +2184,358 @@
         <a:xfrm>
           <a:off x="952499" y="5038725"/>
           <a:ext cx="1114425" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7213</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>26263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="16221075"/>
+          <a:ext cx="1407388" cy="1407388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52352</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>176175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>331380</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="766727" y="12958725"/>
+          <a:ext cx="1526803" cy="2452725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600002</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>84842</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562152" y="12963450"/>
+          <a:ext cx="1256490" cy="2247975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25631</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="18249900"/>
+          <a:ext cx="2035406" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>45225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2902725" y="18276075"/>
+          <a:ext cx="2107425" cy="2107425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="18316575"/>
+          <a:ext cx="2095500" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21031200"/>
+          <a:ext cx="2486025" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="21021675"/>
+          <a:ext cx="2362200" cy="2362200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2345,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU21" sqref="AU21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BH35" sqref="BH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2722,67 +3213,75 @@
   <dimension ref="B2:AF19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="AD3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AD15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>211</v>
       </c>
@@ -2809,15 +3308,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L49"/>
+  <dimension ref="B2:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="AC84" sqref="AC84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3000,6 +3500,26 @@
       </c>
       <c r="F49" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4041,8 +4561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O28:O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL21" sqref="AL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4147,7 +4667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -4656,7 +5176,7 @@
   <dimension ref="B2:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Design/마법사키우기기획서.xlsx
+++ b/Design/마법사키우기기획서.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Bills\MagicGirl\Design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56EAC96-371E-4399-8FCF-DFC812F81058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="19395" windowHeight="4245" tabRatio="785"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="785" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
@@ -25,7 +31,18 @@
     <sheet name="상점" sheetId="13" r:id="rId16"/>
     <sheet name="퀘스트" sheetId="22" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1125,8 +1142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,6 +1164,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1173,11 +1199,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,6 +1218,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1211,7 +1243,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1266,7 +1304,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1315,7 +1359,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1370,7 +1420,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1414,7 +1470,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1463,7 +1525,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1507,7 +1575,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1556,7 +1630,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1600,7 +1680,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1649,7 +1735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1692,7 +1784,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1740,7 +1838,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1784,7 +1888,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1832,7 +1942,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1887,7 +2003,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1942,12 +2064,18 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>132290</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1991,7 +2119,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2035,7 +2169,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2078,7 +2218,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2121,7 +2267,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2159,12 +2311,18 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2207,7 +2365,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2251,7 +2415,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2295,7 +2465,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2339,7 +2515,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2383,7 +2565,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2427,7 +2615,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14"/>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2471,7 +2665,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15"/>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2515,7 +2715,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16"/>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2590,7 +2796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2623,9 +2829,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2658,6 +2881,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2833,10 +3073,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AJ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BH35" sqref="BH35"/>
     </sheetView>
   </sheetViews>
@@ -3114,7 +3354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3209,7 +3449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:AF19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3313,11 +3553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="B2:Q100"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="AC84" sqref="AC84"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="X59" sqref="X59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3446,7 +3686,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>5</v>
       </c>
@@ -3463,28 +3703,29 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" ht="31.5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>233</v>
       </c>
       <c r="K25" t="s">
         <v>234</v>
       </c>
+      <c r="Q25" s="2"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
@@ -3525,12 +3766,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:AK67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4350,7 +4592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4447,7 +4689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4558,7 +4800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4664,7 +4906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4780,7 +5022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4821,7 +5063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:AH51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5035,7 +5277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5086,7 +5328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5134,7 +5376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5172,7 +5414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5215,7 +5457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
